--- a/dokumentacja_projektu/miroslaw_pajak_mapa_podrozy.xlsx
+++ b/dokumentacja_projektu/miroslaw_pajak_mapa_podrozy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasiu\OneDrive\Dokumenty\!ruzyne takie\Studia\2022PBL Moduły i systemy internetu rzeczy projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasiu\OneDrive\Dokumenty\!ruzyne takie\Studia\2022PBL Moduły i systemy internetu rzeczy projekt\pbl_repo_hsh\dokumentacja_projektu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147875FA-00C2-45E4-8F59-04ED266C12B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4775377E-BA4D-44E6-8718-D657F3241887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{8FE8E686-576F-48DE-8F3D-3136599EF814}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>ETAP</t>
   </si>
@@ -44,9 +44,6 @@
     <t>CELE</t>
   </si>
   <si>
-    <t>SZANSE</t>
-  </si>
-  <si>
     <t>Przyjście do pracy</t>
   </si>
   <si>
@@ -123,6 +120,27 @@
   </si>
   <si>
     <t>LJ</t>
+  </si>
+  <si>
+    <t>CYTATY</t>
+  </si>
+  <si>
+    <t>"Znowu spędzę całą noc w pracy..."</t>
+  </si>
+  <si>
+    <t>"Ale nudy, nic się nie dzieje"</t>
+  </si>
+  <si>
+    <t>"W końcu jakiś ruch, jakieś zajęcie!"</t>
+  </si>
+  <si>
+    <t>"I znowu powrót do rutyny..."</t>
+  </si>
+  <si>
+    <t>"W końcu jacyś ludzie!"</t>
+  </si>
+  <si>
+    <t>"W końcu do domu! Tylko co potem..."</t>
   </si>
 </sst>
 </file>
@@ -139,7 +157,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -147,14 +173,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="48"/>
-      <color theme="1"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -163,7 +182,6 @@
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -180,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -217,24 +235,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -245,141 +284,93 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -392,7 +383,9 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -586,10 +579,8 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -599,12 +590,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -618,7 +603,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="22"/>
+        <sz val="16"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -627,7 +612,9 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
         <right style="medium">
           <color indexed="64"/>
         </right>
@@ -638,7 +625,6 @@
           <color indexed="64"/>
         </bottom>
         <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1025,117 +1011,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7C00C0-2FBD-4742-8483-66C0E35865EC}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="G5" sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="31.42578125" customWidth="1"/>
+    <col min="1" max="7" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="F2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="3" spans="1:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    <row r="4" spans="1:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G5" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dokumentacja_projektu/miroslaw_pajak_mapa_podrozy.xlsx
+++ b/dokumentacja_projektu/miroslaw_pajak_mapa_podrozy.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasiu\OneDrive\Dokumenty\!ruzyne takie\Studia\2022PBL Moduły i systemy internetu rzeczy projekt\pbl_repo_hsh\dokumentacja_projektu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4775377E-BA4D-44E6-8718-D657F3241887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79EBC0F-3F45-488B-B1AF-45B88D8EBBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{8FE8E686-576F-48DE-8F3D-3136599EF814}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{8FE8E686-576F-48DE-8F3D-3136599EF814}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>ETAP</t>
   </si>
@@ -147,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,16 +190,68 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color rgb="FF000000"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -331,11 +384,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -372,6 +449,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1011,16 +1118,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7C00C0-2FBD-4742-8483-66C0E35865EC}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="G5" sqref="A1:G5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="7" width="21.28515625" customWidth="1"/>
+    <col min="1" max="7" width="21.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1043,7 +1150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1066,7 +1173,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1089,7 +1196,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -1112,7 +1219,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1136,10 +1243,136 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EB1357-68ED-4F09-A3D6-93F070F56587}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="7" width="15.3828125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="90.45" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="77.599999999999994" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="103.3" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="51.9" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="59.15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>